--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H2">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I2">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J2">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>18.18874640149231</v>
+        <v>68.39913609858235</v>
       </c>
       <c r="R2">
-        <v>18.18874640149231</v>
+        <v>615.5922248872411</v>
       </c>
       <c r="S2">
-        <v>0.0001930927549721859</v>
+        <v>0.0004204388652575646</v>
       </c>
       <c r="T2">
-        <v>0.0001930927549721859</v>
+        <v>0.0004384945672932445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H3">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I3">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J3">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>81.03713002408689</v>
+        <v>262.9675877712686</v>
       </c>
       <c r="R3">
-        <v>81.03713002408689</v>
+        <v>2366.708289941418</v>
       </c>
       <c r="S3">
-        <v>0.0008602947309280398</v>
+        <v>0.001616420915649002</v>
       </c>
       <c r="T3">
-        <v>0.0008602947309280398</v>
+        <v>0.001685837938738245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H4">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I4">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J4">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>138.7950031136462</v>
+        <v>444.4230512570055</v>
       </c>
       <c r="R4">
-        <v>138.7950031136462</v>
+        <v>3999.807461313049</v>
       </c>
       <c r="S4">
-        <v>0.001473455560708033</v>
+        <v>0.002731799464477047</v>
       </c>
       <c r="T4">
-        <v>0.001473455560708033</v>
+        <v>0.002849116299878576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H5">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I5">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J5">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>302.8494798997489</v>
+        <v>1026.046815011221</v>
       </c>
       <c r="R5">
-        <v>302.8494798997489</v>
+        <v>9234.421335100989</v>
       </c>
       <c r="S5">
-        <v>0.003215067114847358</v>
+        <v>0.006306950397483124</v>
       </c>
       <c r="T5">
-        <v>0.003215067114847358</v>
+        <v>0.006577801706771589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H6">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I6">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J6">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>49.48262348804163</v>
+        <v>221.0160847152447</v>
       </c>
       <c r="R6">
-        <v>49.48262348804163</v>
+        <v>1326.096508291468</v>
       </c>
       <c r="S6">
-        <v>0.000525310314501577</v>
+        <v>0.001358551542630861</v>
       </c>
       <c r="T6">
-        <v>0.000525310314501577</v>
+        <v>0.0009445962620773216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H7">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J7">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>2412.117387394409</v>
+        <v>3087.493985816088</v>
       </c>
       <c r="R7">
-        <v>2412.117387394409</v>
+        <v>27787.4458723448</v>
       </c>
       <c r="S7">
-        <v>0.02560717387373568</v>
+        <v>0.01897834595476677</v>
       </c>
       <c r="T7">
-        <v>0.02560717387373568</v>
+        <v>0.01979336898904168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H8">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J8">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>10746.81377379608</v>
+        <v>11870.19152607666</v>
       </c>
       <c r="R8">
-        <v>10746.81377379608</v>
+        <v>106831.7237346899</v>
       </c>
       <c r="S8">
-        <v>0.1140887795645479</v>
+        <v>0.07296422353084468</v>
       </c>
       <c r="T8">
-        <v>0.1140887795645479</v>
+        <v>0.07609766429524836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H9">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J9">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>18406.42740867613</v>
+        <v>20060.97702661597</v>
       </c>
       <c r="R9">
-        <v>18406.42740867613</v>
+        <v>180548.7932395438</v>
       </c>
       <c r="S9">
-        <v>0.1954036687896876</v>
+        <v>0.1233117097396104</v>
       </c>
       <c r="T9">
-        <v>0.1954036687896876</v>
+        <v>0.1286073179065783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H10">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J10">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>40162.6632261805</v>
+        <v>46315.10792690489</v>
       </c>
       <c r="R10">
-        <v>40162.6632261805</v>
+        <v>416835.9713421441</v>
       </c>
       <c r="S10">
-        <v>0.4263690920847089</v>
+        <v>0.2846917743669153</v>
       </c>
       <c r="T10">
-        <v>0.4263690920847089</v>
+        <v>0.2969178321240378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H11">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J11">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>6562.183773127069</v>
+        <v>9976.527062321777</v>
       </c>
       <c r="R11">
-        <v>6562.183773127069</v>
+        <v>59859.16237393067</v>
       </c>
       <c r="S11">
-        <v>0.06966451207890381</v>
+        <v>0.06132416221234832</v>
       </c>
       <c r="T11">
-        <v>0.06966451207890381</v>
+        <v>0.04263848119345669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H12">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I12">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J12">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>42.71652404581467</v>
+        <v>125.8223773082803</v>
       </c>
       <c r="R12">
-        <v>42.71652404581467</v>
+        <v>1132.401395774523</v>
       </c>
       <c r="S12">
-        <v>0.0004534810222086137</v>
+        <v>0.0007734106095032824</v>
       </c>
       <c r="T12">
-        <v>0.0004534810222086137</v>
+        <v>0.0008066246452891274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H13">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I13">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J13">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>190.3168276068606</v>
+        <v>483.7372068664279</v>
       </c>
       <c r="R13">
-        <v>190.3168276068606</v>
+        <v>4353.634861797851</v>
       </c>
       <c r="S13">
-        <v>0.002020414147791966</v>
+        <v>0.002973457472396352</v>
       </c>
       <c r="T13">
-        <v>0.002020414147791966</v>
+        <v>0.003101152285064217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H14">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I14">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J14">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>325.9619963394813</v>
+        <v>817.530279317594</v>
       </c>
       <c r="R14">
-        <v>325.9619963394813</v>
+        <v>7357.772513858346</v>
       </c>
       <c r="S14">
-        <v>0.003460430889522985</v>
+        <v>0.005025231641150994</v>
       </c>
       <c r="T14">
-        <v>0.003460430889522985</v>
+        <v>0.005241039675732451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H15">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I15">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J15">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>711.246218119721</v>
+        <v>1887.445614930463</v>
       </c>
       <c r="R15">
-        <v>711.246218119721</v>
+        <v>16987.01053437417</v>
       </c>
       <c r="S15">
-        <v>0.007550629861386009</v>
+        <v>0.0116018350207376</v>
       </c>
       <c r="T15">
-        <v>0.007550629861386009</v>
+        <v>0.01210007458304168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H16">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I16">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J16">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>116.2106298817549</v>
+        <v>406.5660882348006</v>
       </c>
       <c r="R16">
-        <v>116.2106298817549</v>
+        <v>2439.396529408804</v>
       </c>
       <c r="S16">
-        <v>0.001233698584036556</v>
+        <v>0.002499098593047718</v>
       </c>
       <c r="T16">
-        <v>0.001233698584036556</v>
+        <v>0.001737614742966722</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H17">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I17">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J17">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>373.6916900313635</v>
+        <v>2137.723792854284</v>
       </c>
       <c r="R17">
-        <v>373.6916900313635</v>
+        <v>19239.51413568855</v>
       </c>
       <c r="S17">
-        <v>0.003967132002700742</v>
+        <v>0.01314025610508231</v>
       </c>
       <c r="T17">
-        <v>0.003967132002700742</v>
+        <v>0.01370456299607476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H18">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I18">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J18">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>1664.925190859102</v>
+        <v>8218.701305202439</v>
       </c>
       <c r="R18">
-        <v>1664.925190859102</v>
+        <v>73968.31174682197</v>
       </c>
       <c r="S18">
-        <v>0.01767493948341596</v>
+        <v>0.05051908032390775</v>
       </c>
       <c r="T18">
-        <v>0.01767493948341596</v>
+        <v>0.05268861681736742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H19">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I19">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J19">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>2851.573062626866</v>
+        <v>13889.849857105</v>
       </c>
       <c r="R19">
-        <v>2851.573062626866</v>
+        <v>125008.648713945</v>
       </c>
       <c r="S19">
-        <v>0.03027246004276135</v>
+        <v>0.08537874958102303</v>
       </c>
       <c r="T19">
-        <v>0.03027246004276135</v>
+        <v>0.08904533083694353</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H20">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I20">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J20">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>6222.107421299322</v>
+        <v>32067.72503486789</v>
       </c>
       <c r="R20">
-        <v>6222.107421299322</v>
+        <v>288609.525313811</v>
       </c>
       <c r="S20">
-        <v>0.06605424239754071</v>
+        <v>0.1971153247552625</v>
       </c>
       <c r="T20">
-        <v>0.06605424239754071</v>
+        <v>0.2055804212640426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H21">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I21">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J21">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N21">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O21">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P21">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q21">
-        <v>1016.631096517723</v>
+        <v>6907.563016853207</v>
       </c>
       <c r="R21">
-        <v>1016.631096517723</v>
+        <v>41445.37810111924</v>
       </c>
       <c r="S21">
-        <v>0.01079261290931493</v>
+        <v>0.0424597169226685</v>
       </c>
       <c r="T21">
-        <v>0.01079261290931493</v>
+        <v>0.02952209661206178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H22">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I22">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J22">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N22">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O22">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P22">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q22">
-        <v>55.48870550112593</v>
+        <v>81.4654395068045</v>
       </c>
       <c r="R22">
-        <v>55.48870550112593</v>
+        <v>488.792637040827</v>
       </c>
       <c r="S22">
-        <v>0.0005890712190134012</v>
+        <v>0.0005007554027376021</v>
       </c>
       <c r="T22">
-        <v>0.0005890712190134012</v>
+        <v>0.000348173526581823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H23">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I23">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J23">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N23">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P23">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q23">
-        <v>247.2212951517141</v>
+        <v>313.2023492658499</v>
       </c>
       <c r="R23">
-        <v>247.2212951517141</v>
+        <v>1879.214095595099</v>
       </c>
       <c r="S23">
-        <v>0.002624515176302627</v>
+        <v>0.001925206191662217</v>
       </c>
       <c r="T23">
-        <v>0.002624515176302627</v>
+        <v>0.001338589310237433</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H24">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I24">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J24">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N24">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O24">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P24">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q24">
-        <v>423.4241812381909</v>
+        <v>529.3212935529672</v>
       </c>
       <c r="R24">
-        <v>423.4241812381909</v>
+        <v>3175.927761317803</v>
       </c>
       <c r="S24">
-        <v>0.004495094926960791</v>
+        <v>0.003253655772747229</v>
       </c>
       <c r="T24">
-        <v>0.004495094926960791</v>
+        <v>0.002262255780941259</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H25">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I25">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J25">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N25">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O25">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P25">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q25">
-        <v>923.9078510626531</v>
+        <v>1222.05278468683</v>
       </c>
       <c r="R25">
-        <v>923.9078510626531</v>
+        <v>7332.316708120983</v>
       </c>
       <c r="S25">
-        <v>0.009808257719590983</v>
+        <v>0.007511768647750906</v>
       </c>
       <c r="T25">
-        <v>0.009808257719590983</v>
+        <v>0.005222907165166791</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H26">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I26">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J26">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N26">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O26">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P26">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q26">
-        <v>150.9574470687965</v>
+        <v>263.236840498249</v>
       </c>
       <c r="R26">
-        <v>150.9574470687965</v>
+        <v>1052.947361992996</v>
       </c>
       <c r="S26">
-        <v>0.001602572749911468</v>
+        <v>0.001618075970339108</v>
       </c>
       <c r="T26">
-        <v>0.001602572749911468</v>
+        <v>0.0007500284753665538</v>
       </c>
     </row>
   </sheetData>
